--- a/Лена Пухова.xlsx
+++ b/Лена Пухова.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,7 @@
       <b val="1"/>
       <sz val="15"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,10 +435,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Пухова Лена.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4"/>
